--- a/Code/Results/Cases/Case_9_37/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_37/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.378162206335162</v>
+        <v>3.383796139319315</v>
       </c>
       <c r="C2">
-        <v>0.5359600241487215</v>
+        <v>0.5419298757391857</v>
       </c>
       <c r="D2">
-        <v>0.1008227643407338</v>
+        <v>0.1019403789836986</v>
       </c>
       <c r="E2">
-        <v>0.0598118525387008</v>
+        <v>0.0582795023298921</v>
       </c>
       <c r="F2">
-        <v>0.5599236530793661</v>
+        <v>0.5341808630998486</v>
       </c>
       <c r="G2">
-        <v>0.3287974428629781</v>
+        <v>0.2909426974745983</v>
       </c>
       <c r="H2">
-        <v>0.002062486881364567</v>
+        <v>0.001563578437600466</v>
       </c>
       <c r="I2">
-        <v>0.003035780730678894</v>
+        <v>0.002182985216412803</v>
       </c>
       <c r="J2">
-        <v>0.301054327085275</v>
+        <v>0.3196017113422727</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.07038979658421285</v>
+        <v>0.1337773126855897</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.07332123056255657</v>
       </c>
       <c r="N2">
-        <v>0.3396347935460113</v>
+        <v>0.06788805585007004</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.3534746787878191</v>
       </c>
       <c r="Q2">
-        <v>1.275082528631344</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.203337437016614</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.945280821543918</v>
+        <v>2.950544751986172</v>
       </c>
       <c r="C3">
-        <v>0.4883165390926649</v>
+        <v>0.4855891588907184</v>
       </c>
       <c r="D3">
-        <v>0.09320341128427145</v>
+        <v>0.0942979044296024</v>
       </c>
       <c r="E3">
-        <v>0.05816903300452836</v>
+        <v>0.05690577409590158</v>
       </c>
       <c r="F3">
-        <v>0.5484729198957794</v>
+        <v>0.5252565748749092</v>
       </c>
       <c r="G3">
-        <v>0.3219276979039378</v>
+        <v>0.2870156084057172</v>
       </c>
       <c r="H3">
-        <v>0.003425811752136798</v>
+        <v>0.00268087340922879</v>
       </c>
       <c r="I3">
-        <v>0.004525682040474877</v>
+        <v>0.003246935973017173</v>
       </c>
       <c r="J3">
-        <v>0.3028634210535728</v>
+        <v>0.3197317124643675</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.06933273751194013</v>
+        <v>0.1400707473056375</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.07755893213936726</v>
       </c>
       <c r="N3">
-        <v>0.2995117491243491</v>
+        <v>0.06693134948686133</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.3111820921403989</v>
       </c>
       <c r="Q3">
-        <v>1.263990263871378</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.198186192925107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.679007492983146</v>
+        <v>2.683921681086929</v>
       </c>
       <c r="C4">
-        <v>0.4592879439271087</v>
+        <v>0.4513861807288606</v>
       </c>
       <c r="D4">
-        <v>0.0885556941365806</v>
+        <v>0.08964265066795463</v>
       </c>
       <c r="E4">
-        <v>0.05714773937862727</v>
+        <v>0.05604870606064871</v>
       </c>
       <c r="F4">
-        <v>0.5420311154156892</v>
+        <v>0.5202338025458388</v>
       </c>
       <c r="G4">
-        <v>0.3181886079404066</v>
+        <v>0.2850738512250359</v>
       </c>
       <c r="H4">
-        <v>0.004471901766970432</v>
+        <v>0.003547579877657081</v>
       </c>
       <c r="I4">
-        <v>0.005678806904761302</v>
+        <v>0.004099288015529279</v>
       </c>
       <c r="J4">
-        <v>0.3042991686183569</v>
+        <v>0.3199381946787625</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.06865045113396251</v>
+        <v>0.1441648812915552</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.08070629852618572</v>
       </c>
       <c r="N4">
-        <v>0.2749685804720059</v>
+        <v>0.06631444000646147</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.2853536709194344</v>
       </c>
       <c r="Q4">
-        <v>1.258866970123165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.196318302842585</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.570356467221814</v>
+        <v>2.575098427165415</v>
       </c>
       <c r="C5">
-        <v>0.4483062055568041</v>
+        <v>0.4383357854658527</v>
       </c>
       <c r="D5">
-        <v>0.08668953931886847</v>
+        <v>0.0877745471338045</v>
       </c>
       <c r="E5">
-        <v>0.05670059695086671</v>
+        <v>0.05566972034688966</v>
       </c>
       <c r="F5">
-        <v>0.5390263521998904</v>
+        <v>0.5178017942747388</v>
       </c>
       <c r="G5">
-        <v>0.3163406978539953</v>
+        <v>0.2839855914772542</v>
       </c>
       <c r="H5">
-        <v>0.004950759318426978</v>
+        <v>0.003946238713975925</v>
       </c>
       <c r="I5">
-        <v>0.006284615772051083</v>
+        <v>0.004585087546089994</v>
       </c>
       <c r="J5">
-        <v>0.3047314769855802</v>
+        <v>0.3198255544694746</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.06834174300333862</v>
+        <v>0.1457398866969442</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.08207676983082379</v>
       </c>
       <c r="N5">
-        <v>0.2652668467296024</v>
+        <v>0.06603598369547953</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.2751331899735874</v>
       </c>
       <c r="Q5">
-        <v>1.255769763016332</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.194530803759164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.552296529624755</v>
+        <v>2.557005899281876</v>
       </c>
       <c r="C6">
-        <v>0.447461857392625</v>
+        <v>0.4371485608886587</v>
       </c>
       <c r="D6">
-        <v>0.08640534317867576</v>
+        <v>0.08748939677131773</v>
       </c>
       <c r="E6">
-        <v>0.05659234941164737</v>
+        <v>0.05557456821581308</v>
       </c>
       <c r="F6">
-        <v>0.5378978071122162</v>
+        <v>0.5167995438490181</v>
       </c>
       <c r="G6">
-        <v>0.3155043482231932</v>
+        <v>0.2833122442648346</v>
       </c>
       <c r="H6">
-        <v>0.005036098050721582</v>
+        <v>0.004017497492871336</v>
       </c>
       <c r="I6">
-        <v>0.006492053047225887</v>
+        <v>0.004788177120758519</v>
       </c>
       <c r="J6">
-        <v>0.3045244758404522</v>
+        <v>0.3195306481206046</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.06826304392029381</v>
+        <v>0.1458216352865325</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.08225415823223647</v>
       </c>
       <c r="N6">
-        <v>0.263999333871368</v>
+        <v>0.06596564340077105</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.2737716673656507</v>
       </c>
       <c r="Q6">
-        <v>1.253548922054804</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.192619198908858</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.677513098167708</v>
+        <v>2.682402506533947</v>
       </c>
       <c r="C7">
-        <v>0.4618151294198753</v>
+        <v>0.4536412829703806</v>
       </c>
       <c r="D7">
-        <v>0.08859959627535829</v>
+        <v>0.08981820919944283</v>
       </c>
       <c r="E7">
-        <v>0.05704972572564504</v>
+        <v>0.05596175687526106</v>
       </c>
       <c r="F7">
-        <v>0.5402495099718934</v>
+        <v>0.5177126212868259</v>
       </c>
       <c r="G7">
-        <v>0.3166997359364103</v>
+        <v>0.2858292329082062</v>
       </c>
       <c r="H7">
-        <v>0.004485283826691777</v>
+        <v>0.003563053064603416</v>
       </c>
       <c r="I7">
-        <v>0.005952883697609046</v>
+        <v>0.004418137845476622</v>
       </c>
       <c r="J7">
-        <v>0.3035322555321969</v>
+        <v>0.3157036607673049</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.06857357452165591</v>
+        <v>0.1435332319707285</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.08049241786476014</v>
       </c>
       <c r="N7">
-        <v>0.2757741176628912</v>
+        <v>0.06622787806305325</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.2861556385155808</v>
       </c>
       <c r="Q7">
-        <v>1.254103314692259</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.18939631824685</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.228947651355895</v>
+        <v>3.234411149767197</v>
       </c>
       <c r="C8">
-        <v>0.5230737763679656</v>
+        <v>0.5252233928162866</v>
       </c>
       <c r="D8">
-        <v>0.09828098154895315</v>
+        <v>0.09983571265814106</v>
       </c>
       <c r="E8">
-        <v>0.05912760775276205</v>
+        <v>0.05771487627015581</v>
       </c>
       <c r="F8">
-        <v>0.553558277666113</v>
+        <v>0.5260821763793544</v>
       </c>
       <c r="G8">
-        <v>0.324397871057414</v>
+        <v>0.2948380630639704</v>
       </c>
       <c r="H8">
-        <v>0.00249425047733709</v>
+        <v>0.001924801803484311</v>
       </c>
       <c r="I8">
-        <v>0.003816327019459997</v>
+        <v>0.002888469113798031</v>
       </c>
       <c r="J8">
-        <v>0.3005964775267458</v>
+        <v>0.307383721891469</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.06993977479609204</v>
+        <v>0.1348655176351858</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.07413392515232609</v>
       </c>
       <c r="N8">
-        <v>0.3270269108980415</v>
+        <v>0.06742666918732182</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.3401690953780871</v>
       </c>
       <c r="Q8">
-        <v>1.264689261438718</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.187427871808254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.30724860823193</v>
+        <v>4.312781138509195</v>
       </c>
       <c r="C9">
-        <v>0.6403133290793903</v>
+        <v>0.6648659480968604</v>
       </c>
       <c r="D9">
-        <v>0.1174080628193295</v>
+        <v>0.119188602762577</v>
       </c>
       <c r="E9">
-        <v>0.06327086496013123</v>
+        <v>0.06118327524562872</v>
       </c>
       <c r="F9">
-        <v>0.5876978567386431</v>
+        <v>0.5523102996870293</v>
       </c>
       <c r="G9">
-        <v>0.3461685774150922</v>
+        <v>0.3111013893269003</v>
       </c>
       <c r="H9">
-        <v>0.0003498955091557621</v>
+        <v>0.0002179497143477427</v>
       </c>
       <c r="I9">
-        <v>0.001243785619513105</v>
+        <v>0.001085277774429905</v>
       </c>
       <c r="J9">
-        <v>0.2988995205018483</v>
+        <v>0.3056656332282586</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.07248498143967863</v>
+        <v>0.1210447588137171</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.06668640522808467</v>
       </c>
       <c r="N9">
-        <v>0.4267151358790784</v>
+        <v>0.0697228604645006</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.4455696278859449</v>
       </c>
       <c r="Q9">
-        <v>1.30803383509182</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.211238038103318</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.098347527234296</v>
+        <v>5.102897828084224</v>
       </c>
       <c r="C10">
-        <v>0.7360036626008366</v>
+        <v>0.7753707393252967</v>
       </c>
       <c r="D10">
-        <v>0.1298113436782558</v>
+        <v>0.1325378786742704</v>
       </c>
       <c r="E10">
-        <v>0.0646277212636015</v>
+        <v>0.06218453114349565</v>
       </c>
       <c r="F10">
-        <v>0.6058784379386069</v>
+        <v>0.5604951355911751</v>
       </c>
       <c r="G10">
-        <v>0.3577492164377318</v>
+        <v>0.3324213284435018</v>
       </c>
       <c r="H10">
-        <v>0.0001909567136078039</v>
+        <v>0.0002049999284050585</v>
       </c>
       <c r="I10">
-        <v>0.0008981861327432838</v>
+        <v>0.001086028324804644</v>
       </c>
       <c r="J10">
-        <v>0.2957314326478837</v>
+        <v>0.2839196995956073</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.07372461839299843</v>
+        <v>0.1105317645146666</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.06220291414421553</v>
       </c>
       <c r="N10">
-        <v>0.4901367861201464</v>
+        <v>0.07094731872871396</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.5128200162110517</v>
       </c>
       <c r="Q10">
-        <v>1.326456767874618</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.20296186442377</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.455443763584469</v>
+        <v>5.459249007833876</v>
       </c>
       <c r="C11">
-        <v>0.8462680495680956</v>
+        <v>0.879964437515838</v>
       </c>
       <c r="D11">
-        <v>0.1195906663713018</v>
+        <v>0.1235242419870133</v>
       </c>
       <c r="E11">
-        <v>0.05394014989831941</v>
+        <v>0.05213854586300748</v>
       </c>
       <c r="F11">
-        <v>0.5329962718848478</v>
+        <v>0.4864056721929657</v>
       </c>
       <c r="G11">
-        <v>0.3067110408756335</v>
+        <v>0.3134249877613655</v>
       </c>
       <c r="H11">
-        <v>0.01876263256285071</v>
+        <v>0.01877556827504989</v>
       </c>
       <c r="I11">
-        <v>0.001445337336769548</v>
+        <v>0.001790186762544721</v>
       </c>
       <c r="J11">
-        <v>0.2654275319685198</v>
+        <v>0.2294043723072505</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.07660182699492424</v>
+        <v>0.09937726416825132</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.05108344737366721</v>
       </c>
       <c r="N11">
-        <v>0.4280099432961038</v>
+        <v>0.07552284950916999</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.4467233440004179</v>
       </c>
       <c r="Q11">
-        <v>1.155013912091306</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.027596845621801</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.589652814579438</v>
+        <v>5.593202101663906</v>
       </c>
       <c r="C12">
-        <v>0.9192212501241102</v>
+        <v>0.9443346055622328</v>
       </c>
       <c r="D12">
-        <v>0.1086367652131415</v>
+        <v>0.1128006063779807</v>
       </c>
       <c r="E12">
-        <v>0.04832007545623274</v>
+        <v>0.04690402551786299</v>
       </c>
       <c r="F12">
-        <v>0.4734018707966854</v>
+        <v>0.4307776256279467</v>
       </c>
       <c r="G12">
-        <v>0.2658674471208613</v>
+        <v>0.2871072539792223</v>
       </c>
       <c r="H12">
-        <v>0.05742493736841681</v>
+        <v>0.05743315738929766</v>
       </c>
       <c r="I12">
-        <v>0.00146007951260696</v>
+        <v>0.001810710861154696</v>
       </c>
       <c r="J12">
-        <v>0.2427123396956219</v>
+        <v>0.2046212128195108</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.08721661171642481</v>
+        <v>0.09448368446216726</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.0443940755174097</v>
       </c>
       <c r="N12">
-        <v>0.3649036258881324</v>
+        <v>0.08723522694203112</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.37974463061893</v>
       </c>
       <c r="Q12">
-        <v>1.020937862767525</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.9042209815037126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.558694054818886</v>
+        <v>5.562461218018541</v>
       </c>
       <c r="C13">
-        <v>0.9711348647064142</v>
+        <v>0.9858170952254852</v>
       </c>
       <c r="D13">
-        <v>0.09664867106172892</v>
+        <v>0.1000969208703992</v>
       </c>
       <c r="E13">
-        <v>0.04607524911829319</v>
+        <v>0.04491680048576563</v>
       </c>
       <c r="F13">
-        <v>0.4177527928749356</v>
+        <v>0.3842210948219176</v>
       </c>
       <c r="G13">
-        <v>0.2280629979573945</v>
+        <v>0.2474098411351164</v>
       </c>
       <c r="H13">
-        <v>0.1131463428250896</v>
+        <v>0.1131463534666182</v>
       </c>
       <c r="I13">
-        <v>0.001393841467049128</v>
+        <v>0.001721990472725921</v>
       </c>
       <c r="J13">
-        <v>0.2232056346242075</v>
+        <v>0.1970559532032219</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1039919656652089</v>
+        <v>0.09263099433909794</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.04046743843588807</v>
       </c>
       <c r="N13">
-        <v>0.299283403224095</v>
+        <v>0.1045296509396429</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.310145034452546</v>
       </c>
       <c r="Q13">
-        <v>0.8999223493184161</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.8082501527170081</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.462140794398238</v>
+        <v>5.466250563620861</v>
       </c>
       <c r="C14">
-        <v>0.9990470692781059</v>
+        <v>1.005487210745571</v>
       </c>
       <c r="D14">
-        <v>0.08794139725539196</v>
+        <v>0.09056338456154833</v>
       </c>
       <c r="E14">
-        <v>0.0464786538218469</v>
+        <v>0.04544711074362384</v>
       </c>
       <c r="F14">
-        <v>0.3809245528742125</v>
+        <v>0.3553248276649441</v>
       </c>
       <c r="G14">
-        <v>0.2031911208322086</v>
+        <v>0.2153407837304044</v>
       </c>
       <c r="H14">
-        <v>0.1624768672004819</v>
+        <v>0.1624658850832361</v>
       </c>
       <c r="I14">
-        <v>0.001410512072700598</v>
+        <v>0.001720808569277921</v>
       </c>
       <c r="J14">
-        <v>0.2110647204839111</v>
+        <v>0.1973080268058744</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.1194756023782944</v>
+        <v>0.09241765546522562</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.03910817765548691</v>
       </c>
       <c r="N14">
-        <v>0.253457427219999</v>
+        <v>0.1199624618971171</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.2616202783520976</v>
       </c>
       <c r="Q14">
-        <v>0.8217078525805874</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.7518854703120041</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.403378019135289</v>
+        <v>5.407657659374536</v>
       </c>
       <c r="C15">
-        <v>1.002004293244568</v>
+        <v>1.006175536340777</v>
       </c>
       <c r="D15">
-        <v>0.0855886777613506</v>
+        <v>0.08787423651729398</v>
       </c>
       <c r="E15">
-        <v>0.04682815094480208</v>
+        <v>0.0458336627759115</v>
       </c>
       <c r="F15">
-        <v>0.3719721793916193</v>
+        <v>0.3490834993007752</v>
       </c>
       <c r="G15">
-        <v>0.1971073721351289</v>
+        <v>0.2052741608301076</v>
       </c>
       <c r="H15">
-        <v>0.1749830213460513</v>
+        <v>0.1749650114981023</v>
       </c>
       <c r="I15">
-        <v>0.001524893221951373</v>
+        <v>0.001843525355889497</v>
       </c>
       <c r="J15">
-        <v>0.2084597958472472</v>
+        <v>0.1996257553651688</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1234994018585738</v>
+        <v>0.09264369761233793</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.03919821706329341</v>
       </c>
       <c r="N15">
-        <v>0.2415862326909206</v>
+        <v>0.1238709306456443</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.2490438830024004</v>
       </c>
       <c r="Q15">
-        <v>0.8033178320068544</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.7409719003418473</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.068048192078209</v>
+        <v>5.073077319713263</v>
       </c>
       <c r="C16">
-        <v>0.9496754677449246</v>
+        <v>0.9521360613135528</v>
       </c>
       <c r="D16">
-        <v>0.0830057793298451</v>
+        <v>0.08413036950782526</v>
       </c>
       <c r="E16">
-        <v>0.04664739865747514</v>
+        <v>0.04578224111291274</v>
       </c>
       <c r="F16">
-        <v>0.3746219834790594</v>
+        <v>0.358693714505435</v>
       </c>
       <c r="G16">
-        <v>0.1988837801770558</v>
+        <v>0.1888060680305657</v>
       </c>
       <c r="H16">
-        <v>0.1622757862427875</v>
+        <v>0.1622014895773276</v>
       </c>
       <c r="I16">
-        <v>0.001707994328385531</v>
+        <v>0.001944741738017619</v>
       </c>
       <c r="J16">
-        <v>0.2131322512443035</v>
+        <v>0.2230671566131939</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1189172269939291</v>
+        <v>0.09516992609715746</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.04279259819738224</v>
       </c>
       <c r="N16">
-        <v>0.2299921470983435</v>
+        <v>0.1187887950337227</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.2367506911671455</v>
       </c>
       <c r="Q16">
-        <v>0.8166541129295695</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.7735081185421109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.862812112635709</v>
+        <v>4.868156494835034</v>
       </c>
       <c r="C17">
-        <v>0.8949434851832336</v>
+        <v>0.9000855877663128</v>
       </c>
       <c r="D17">
-        <v>0.08556949173289041</v>
+        <v>0.08632805058274329</v>
       </c>
       <c r="E17">
-        <v>0.04598345852215413</v>
+        <v>0.04512706332445982</v>
       </c>
       <c r="F17">
-        <v>0.3958889523039204</v>
+        <v>0.3808750317639849</v>
       </c>
       <c r="G17">
-        <v>0.213235282326913</v>
+        <v>0.1944301271041908</v>
       </c>
       <c r="H17">
-        <v>0.1245588950192342</v>
+        <v>0.1244399954902775</v>
       </c>
       <c r="I17">
-        <v>0.001896206308119375</v>
+        <v>0.002073399752350547</v>
       </c>
       <c r="J17">
-        <v>0.2231047759823568</v>
+        <v>0.2412598796213317</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.106569437406165</v>
+        <v>0.09776714824529553</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.04609055303485565</v>
       </c>
       <c r="N17">
-        <v>0.2447765037274507</v>
+        <v>0.1062682019122079</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.2523385880411411</v>
       </c>
       <c r="Q17">
-        <v>0.8678317357888972</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.8272933810251146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.745531387883204</v>
+        <v>4.750985278985013</v>
       </c>
       <c r="C18">
-        <v>0.8309051319899652</v>
+        <v>0.8428794741395507</v>
       </c>
       <c r="D18">
-        <v>0.09306158105074047</v>
+        <v>0.09383178501968104</v>
       </c>
       <c r="E18">
-        <v>0.04657313996557383</v>
+        <v>0.04556203776907403</v>
       </c>
       <c r="F18">
-        <v>0.4383999237925877</v>
+        <v>0.420278116302768</v>
       </c>
       <c r="G18">
-        <v>0.2422399974922484</v>
+        <v>0.2168389274724234</v>
       </c>
       <c r="H18">
-        <v>0.07176954325230867</v>
+        <v>0.07163436740112417</v>
       </c>
       <c r="I18">
-        <v>0.001735718558466992</v>
+        <v>0.001837720010499311</v>
       </c>
       <c r="J18">
-        <v>0.2398128306341363</v>
+        <v>0.2603137556273012</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.08994074089989823</v>
+        <v>0.1014770467498254</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.05005279203734414</v>
       </c>
       <c r="N18">
-        <v>0.2857352977824945</v>
+        <v>0.08948343603975673</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.2956563408941832</v>
       </c>
       <c r="Q18">
-        <v>0.9642384965230804</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.9153425997398728</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.706984687129079</v>
+        <v>4.712407997323567</v>
       </c>
       <c r="C19">
-        <v>0.7727071328932595</v>
+        <v>0.7937219457356264</v>
       </c>
       <c r="D19">
-        <v>0.1045414619931861</v>
+        <v>0.1055515572194281</v>
       </c>
       <c r="E19">
-        <v>0.05065945145230355</v>
+        <v>0.04927221718835639</v>
       </c>
       <c r="F19">
-        <v>0.4953808814830509</v>
+        <v>0.4712096260295482</v>
       </c>
       <c r="G19">
-        <v>0.2811236369517971</v>
+        <v>0.2494964207116368</v>
       </c>
       <c r="H19">
-        <v>0.02648096745986095</v>
+        <v>0.02636750913499242</v>
       </c>
       <c r="I19">
-        <v>0.001826558172068893</v>
+        <v>0.001965697547954726</v>
       </c>
       <c r="J19">
-        <v>0.2606214675438423</v>
+        <v>0.2797714430295812</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.07708392624911653</v>
+        <v>0.1062689540910187</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.05483770941192301</v>
       </c>
       <c r="N19">
-        <v>0.3501654753149097</v>
+        <v>0.07611190053911265</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.3638538979398191</v>
       </c>
       <c r="Q19">
-        <v>1.090229286279097</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.025002758572185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.89046816520397</v>
+        <v>4.895442106509279</v>
       </c>
       <c r="C20">
-        <v>0.719834103378048</v>
+        <v>0.7562953081590251</v>
       </c>
       <c r="D20">
-        <v>0.1266822594256922</v>
+        <v>0.1286535229271522</v>
       </c>
       <c r="E20">
-        <v>0.06393480359887427</v>
+        <v>0.0615833985280112</v>
       </c>
       <c r="F20">
-        <v>0.5951679471433025</v>
+        <v>0.5558383572499395</v>
       </c>
       <c r="G20">
-        <v>0.3497705153278261</v>
+        <v>0.3143384965612839</v>
       </c>
       <c r="H20">
-        <v>0.0001314485051384651</v>
+        <v>0.000118827625922524</v>
       </c>
       <c r="I20">
-        <v>0.001680873272620786</v>
+        <v>0.001952532547770502</v>
       </c>
       <c r="J20">
-        <v>0.2939725331686489</v>
+        <v>0.2984695659263394</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.07320349623915573</v>
+        <v>0.112638376679282</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.06265144487120189</v>
       </c>
       <c r="N20">
-        <v>0.4759489111988842</v>
+        <v>0.07053367170033642</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.4974457293865413</v>
       </c>
       <c r="Q20">
-        <v>1.305729500299165</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.199242055437594</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.4980375029632</v>
+        <v>5.50134554023424</v>
       </c>
       <c r="C21">
-        <v>0.7816998984771431</v>
+        <v>0.8266605789371511</v>
       </c>
       <c r="D21">
-        <v>0.1391363890903392</v>
+        <v>0.1446491730596904</v>
       </c>
       <c r="E21">
-        <v>0.06748953011886982</v>
+        <v>0.06486075777180567</v>
       </c>
       <c r="F21">
-        <v>0.6261103054337056</v>
+        <v>0.5614512837736996</v>
       </c>
       <c r="G21">
-        <v>0.3708202291746971</v>
+        <v>0.3856205874290026</v>
       </c>
       <c r="H21">
-        <v>0.0001808143060111345</v>
+        <v>0.0002124584485601044</v>
       </c>
       <c r="I21">
-        <v>0.001734876104019456</v>
+        <v>0.002147453286881706</v>
       </c>
       <c r="J21">
-        <v>0.2978781696825052</v>
+        <v>0.2363579524503976</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.07484866011133651</v>
+        <v>0.1051457871392625</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.05966860197364454</v>
       </c>
       <c r="N21">
-        <v>0.5413400324415818</v>
+        <v>0.07155722550789922</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.5674480098710291</v>
       </c>
       <c r="Q21">
-        <v>1.358911431436042</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.181457975561656</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.895287317908981</v>
+        <v>5.897218246283785</v>
       </c>
       <c r="C22">
-        <v>0.8222362884362155</v>
+        <v>0.8718882475978376</v>
       </c>
       <c r="D22">
-        <v>0.1462739398856456</v>
+        <v>0.1544066965438731</v>
       </c>
       <c r="E22">
-        <v>0.06911071764356969</v>
+        <v>0.06638097181577152</v>
       </c>
       <c r="F22">
-        <v>0.6444796442327743</v>
+        <v>0.5621800929006326</v>
       </c>
       <c r="G22">
-        <v>0.3837459366750551</v>
+        <v>0.4392130054351213</v>
       </c>
       <c r="H22">
-        <v>0.0005709305856202995</v>
+        <v>0.0005732189242924068</v>
       </c>
       <c r="I22">
-        <v>0.001777361631201124</v>
+        <v>0.002139011006728531</v>
       </c>
       <c r="J22">
-        <v>0.3000683085317348</v>
+        <v>0.2022897840414437</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.0757545438094116</v>
+        <v>0.100453850942591</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.05781123638517904</v>
       </c>
       <c r="N22">
-        <v>0.5774078391887087</v>
+        <v>0.07214942570035343</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.6062727472269813</v>
       </c>
       <c r="Q22">
-        <v>1.391138812997355</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.164281461209242</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.683308011739882</v>
+        <v>5.686067049386168</v>
       </c>
       <c r="C23">
-        <v>0.7972215690556652</v>
+        <v>0.8449388971112626</v>
       </c>
       <c r="D23">
-        <v>0.1423763474123092</v>
+        <v>0.1487116557829751</v>
       </c>
       <c r="E23">
-        <v>0.06834977390871799</v>
+        <v>0.06563975476296413</v>
       </c>
       <c r="F23">
-        <v>0.6366087387026269</v>
+        <v>0.5656912528172171</v>
       </c>
       <c r="G23">
-        <v>0.3784708039337801</v>
+        <v>0.4052594798260287</v>
       </c>
       <c r="H23">
-        <v>0.0003378845793067242</v>
+        <v>0.0003631519113991288</v>
       </c>
       <c r="I23">
-        <v>0.001425040491509044</v>
+        <v>0.001760522357296068</v>
       </c>
       <c r="J23">
-        <v>0.299737985668898</v>
+        <v>0.225307042279745</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.07534512936275917</v>
+        <v>0.1033536569944875</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.05941999409332333</v>
       </c>
       <c r="N23">
-        <v>0.5570018527580203</v>
+        <v>0.07191749435429262</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.5843369235746962</v>
       </c>
       <c r="Q23">
-        <v>1.379136480219216</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.184157083278038</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.880884018959989</v>
+        <v>4.885861513205327</v>
       </c>
       <c r="C24">
-        <v>0.7084261236729787</v>
+        <v>0.7454239259378994</v>
       </c>
       <c r="D24">
-        <v>0.1278414721641212</v>
+        <v>0.1298290299854017</v>
       </c>
       <c r="E24">
-        <v>0.06529711113188696</v>
+        <v>0.06286010074386184</v>
       </c>
       <c r="F24">
-        <v>0.6052336879829667</v>
+        <v>0.5649728827768712</v>
       </c>
       <c r="G24">
-        <v>0.3572165840649149</v>
+        <v>0.3205065639281415</v>
       </c>
       <c r="H24">
-        <v>8.952496605374449E-06</v>
+        <v>2.196623882788629E-08</v>
       </c>
       <c r="I24">
-        <v>0.00118556287551197</v>
+        <v>0.001358766719708804</v>
       </c>
       <c r="J24">
-        <v>0.2979199365291336</v>
+        <v>0.3024531846900373</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.07363740169351218</v>
+        <v>0.1139480777341948</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.06399845519066893</v>
       </c>
       <c r="N24">
-        <v>0.4818861413191087</v>
+        <v>0.07077421368739584</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.5039027264253519</v>
       </c>
       <c r="Q24">
-        <v>1.329775224960628</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.220672873961277</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.015679901788928</v>
+        <v>4.021363355585549</v>
       </c>
       <c r="C25">
-        <v>0.6133584716963014</v>
+        <v>0.6321452441697772</v>
       </c>
       <c r="D25">
-        <v>0.1123283329933429</v>
+        <v>0.113844177534979</v>
       </c>
       <c r="E25">
-        <v>0.0619970389525637</v>
+        <v>0.06009480624357799</v>
       </c>
       <c r="F25">
-        <v>0.5747861858813579</v>
+        <v>0.5430585936407581</v>
       </c>
       <c r="G25">
-        <v>0.3371903902158309</v>
+        <v>0.3007224475583286</v>
       </c>
       <c r="H25">
-        <v>0.0007291051883634436</v>
+        <v>0.0005041407400033782</v>
       </c>
       <c r="I25">
-        <v>0.002148281368373972</v>
+        <v>0.001900502411944949</v>
       </c>
       <c r="J25">
-        <v>0.2976877072632007</v>
+        <v>0.3094668785474255</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.07170411461788118</v>
+        <v>0.1241613822713798</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.0678771898709023</v>
       </c>
       <c r="N25">
-        <v>0.4013538856379881</v>
+        <v>0.0690556367092946</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.4185567943788442</v>
       </c>
       <c r="Q25">
-        <v>1.286268662835042</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.199214347065364</v>
       </c>
     </row>
   </sheetData>
